--- a/Subs/TestData/TestData.xlsx
+++ b/Subs/TestData/TestData.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="988"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="988" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="STAGING" sheetId="4" r:id="rId1"/>
     <sheet name="emailCred" sheetId="6" r:id="rId2"/>
+    <sheet name="profile" sheetId="7" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">STAGING!$A$1:$K$65</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="93">
   <si>
     <t>url</t>
   </si>
@@ -284,6 +285,33 @@
   </si>
   <si>
     <t>sandeep.tiwari@cssindiaonline.com</t>
+  </si>
+  <si>
+    <t>sandeep.tiwari@cssindiaonline.com, adarsh.kumar@cssindiaonline.com</t>
+  </si>
+  <si>
+    <t>testteam.developer@gmail.com</t>
+  </si>
+  <si>
+    <t>test@12345</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>LN</t>
+  </si>
+  <si>
+    <t>YL</t>
+  </si>
+  <si>
+    <t>excelFN</t>
+  </si>
+  <si>
+    <t>excelLN</t>
+  </si>
+  <si>
+    <t>excelYL</t>
   </si>
 </sst>
 </file>
@@ -759,7 +787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1146,7 +1174,7 @@
   <dimension ref="A1:AMK10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1177,18 +1205,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="42">
-      <c r="A2" s="6" t="str">
-        <f>A3</f>
-        <v>Thanos@1990</v>
-      </c>
-      <c r="B2" s="7" t="str">
-        <f>E2</f>
-        <v>shailendra.rajawat@nextgenclearing.com</v>
-      </c>
-      <c r="C2" s="7" t="str">
-        <f>E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E5&amp;","&amp;E10</f>
-        <v>shailendra.rajawat@nextgenclearing.com,prafull.barve@nextgenclearing.com,ivana.jandrecic@nextgenclearing.com,dario.curjak@nextgenclearing.com,dario.curjak@nextgenclearing.com</v>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>4</v>
@@ -1272,17 +1297,16 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="Thanos@1990"/>
-    <hyperlink ref="B2" r:id="rId2" display="shailendra.rajawat@nextgenclearing.com"/>
-    <hyperlink ref="E2" r:id="rId3"/>
-    <hyperlink ref="E3" r:id="rId4"/>
-    <hyperlink ref="E4" r:id="rId5"/>
-    <hyperlink ref="E5" r:id="rId6"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="E10" r:id="rId3"/>
+    <hyperlink ref="E9" r:id="rId4"/>
+    <hyperlink ref="E8" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId6"/>
     <hyperlink ref="E6" r:id="rId7"/>
-    <hyperlink ref="E7" r:id="rId8"/>
-    <hyperlink ref="E8" r:id="rId9"/>
-    <hyperlink ref="E9" r:id="rId10"/>
-    <hyperlink ref="A3" r:id="rId11"/>
-    <hyperlink ref="E10" r:id="rId12"/>
+    <hyperlink ref="E5" r:id="rId8"/>
+    <hyperlink ref="E4" r:id="rId9"/>
+    <hyperlink ref="E3" r:id="rId10"/>
+    <hyperlink ref="E2" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <extLst>
@@ -1291,4 +1315,46 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>